--- a/Student Gacha.xlsx
+++ b/Student Gacha.xlsx
@@ -508,7 +508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +517,9 @@
       <c r="A1" t="str">
         <v>ラベル</v>
       </c>
+      <c r="C1" t="str">
+        <v>label</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -526,12 +529,12 @@
         <v>１</v>
       </c>
       <c r="C2" t="str">
-        <v>１</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>テスト１</v>
+        <v>人間1</v>
       </c>
       <c r="B3" t="str">
         <v>１</v>
@@ -539,15 +542,23 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>テスト２</v>
+        <v>人間2</v>
       </c>
       <c r="C4" t="str">
         <v>１</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>人間3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Student Gacha.xlsx
+++ b/Student Gacha.xlsx
@@ -433,9 +433,6 @@
       <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
-        <v>1-A</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -445,9 +442,6 @@
     <row r="5">
       <c r="A5" t="str">
         <v>4</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1-A</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +502,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +523,7 @@
         <v>１</v>
       </c>
       <c r="C2" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -548,17 +542,9 @@
         <v>１</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>人間3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>